--- a/src/attributions/attributions_saliency_traj_195.xlsx
+++ b/src/attributions/attributions_saliency_traj_195.xlsx
@@ -1004,571 +1004,571 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8.872822945704684e-05</v>
+        <v>1.370084100926761e-05</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0001149466406786814</v>
+        <v>1.451723619538825e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>4.459796400624327e-06</v>
+        <v>1.349601734546013e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>6.742242840118706e-05</v>
+        <v>3.52803326677531e-05</v>
       </c>
       <c r="E2" t="n">
-        <v>9.673941531218588e-05</v>
+        <v>8.552023246011231e-06</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0002645595232024789</v>
+        <v>3.713623755174922e-06</v>
       </c>
       <c r="G2" t="n">
-        <v>7.404456846415997e-05</v>
+        <v>1.089488159777829e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>6.658640631940216e-05</v>
+        <v>2.491811301297275e-06</v>
       </c>
       <c r="I2" t="n">
-        <v>2.984245111292694e-05</v>
+        <v>2.258564109069994e-06</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0001207563909702003</v>
+        <v>1.796982542145997e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>4.542669557849877e-05</v>
+        <v>1.572544351802208e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>7.638974057044834e-05</v>
+        <v>1.24200578284217e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>1.416694431100041e-06</v>
+        <v>3.851698056678288e-05</v>
       </c>
       <c r="N2" t="n">
-        <v>1.808640809031203e-05</v>
+        <v>7.221244686661521e-07</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0002460322284605354</v>
+        <v>1.867105129349511e-05</v>
       </c>
       <c r="P2" t="n">
-        <v>4.387636363389902e-05</v>
+        <v>1.336393324891105e-07</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.638554390927311e-06</v>
+        <v>8.347456059709657e-06</v>
       </c>
       <c r="R2" t="n">
-        <v>1.685802817519289e-05</v>
+        <v>5.359058377507608e-06</v>
       </c>
       <c r="S2" t="n">
-        <v>5.041376425651833e-05</v>
+        <v>5.764592970081139e-06</v>
       </c>
       <c r="T2" t="n">
-        <v>1.91584877029527e-05</v>
+        <v>7.134514817153104e-06</v>
       </c>
       <c r="U2" t="n">
-        <v>2.329793824173976e-05</v>
+        <v>3.713331807375653e-06</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0001910208957269788</v>
+        <v>6.12801613897318e-08</v>
       </c>
       <c r="W2" t="n">
-        <v>9.928342478815466e-05</v>
+        <v>1.010815049085068e-05</v>
       </c>
       <c r="X2" t="n">
-        <v>2.953538569272496e-08</v>
+        <v>1.100256849895231e-05</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.38629392394796e-05</v>
+        <v>4.774972239829367e-06</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0001020195340970531</v>
+        <v>7.841967089916579e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>4.67520221718587e-05</v>
+        <v>1.818297846511996e-06</v>
       </c>
       <c r="AB2" t="n">
-        <v>2.805667099892162e-05</v>
+        <v>7.575376002932899e-06</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.404878250672482e-05</v>
+        <v>4.645969966077246e-06</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.58531571389176e-05</v>
+        <v>5.932316071266541e-06</v>
       </c>
       <c r="AE2" t="n">
-        <v>3.031608321180101e-05</v>
+        <v>7.088805887178751e-06</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.815160430851392e-05</v>
+        <v>1.691698889771942e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>7.286264735739678e-05</v>
+        <v>7.514312528655864e-06</v>
       </c>
       <c r="AH2" t="n">
-        <v>7.554279727628455e-05</v>
+        <v>1.928346136992332e-06</v>
       </c>
       <c r="AI2" t="n">
-        <v>2.373126335442066e-05</v>
+        <v>1.975615077753901e-06</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0001244503946509212</v>
+        <v>2.865914893845911e-06</v>
       </c>
       <c r="AK2" t="n">
-        <v>1.906207398860715e-05</v>
+        <v>6.026800747349625e-06</v>
       </c>
       <c r="AL2" t="n">
-        <v>2.158839015464764e-05</v>
+        <v>1.740775951475371e-05</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.0001100478984881192</v>
+        <v>2.095320496664499e-06</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.063477535964921e-05</v>
+        <v>5.150855031388346e-06</v>
       </c>
       <c r="AO2" t="n">
-        <v>5.835630872752517e-05</v>
+        <v>8.043489287956618e-07</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.419310865458101e-05</v>
+        <v>3.421243491175119e-06</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.488057932874653e-06</v>
+        <v>7.640558123966912e-07</v>
       </c>
       <c r="AR2" t="n">
-        <v>5.634300759993494e-05</v>
+        <v>2.310400759597542e-06</v>
       </c>
       <c r="AS2" t="n">
-        <v>5.314211739460006e-05</v>
+        <v>7.241298590088263e-06</v>
       </c>
       <c r="AT2" t="n">
-        <v>5.88516122661531e-05</v>
+        <v>5.222149866312975e-06</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.0001236639363924041</v>
+        <v>7.031044788163854e-06</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.0001326488418271765</v>
+        <v>5.500996849150397e-06</v>
       </c>
       <c r="AW2" t="n">
-        <v>8.316708408528939e-05</v>
+        <v>1.36215812744922e-05</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.000138506802613847</v>
+        <v>2.276765371789224e-06</v>
       </c>
       <c r="AY2" t="n">
-        <v>2.438757837808225e-05</v>
+        <v>8.059812898864038e-06</v>
       </c>
       <c r="AZ2" t="n">
-        <v>1.955037441803142e-05</v>
+        <v>3.093009581789374e-08</v>
       </c>
       <c r="BA2" t="n">
-        <v>5.153285655978834e-06</v>
+        <v>7.1635736276221e-07</v>
       </c>
       <c r="BB2" t="n">
-        <v>2.423103751425515e-06</v>
+        <v>1.078422428690828e-05</v>
       </c>
       <c r="BC2" t="n">
-        <v>2.040861363639124e-05</v>
+        <v>5.923112667005626e-07</v>
       </c>
       <c r="BD2" t="n">
-        <v>3.727446892298758e-05</v>
+        <v>1.397128926328151e-06</v>
       </c>
       <c r="BE2" t="n">
-        <v>4.804399213753641e-05</v>
+        <v>6.418706561817089e-06</v>
       </c>
       <c r="BF2" t="n">
-        <v>4.458379771676846e-05</v>
+        <v>1.64891462191008e-05</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.0001396823790855706</v>
+        <v>5.138224878464825e-06</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.0001461209176341072</v>
+        <v>6.30148861091584e-06</v>
       </c>
       <c r="BI2" t="n">
-        <v>1.260942372027785e-05</v>
+        <v>7.275198186107446e-06</v>
       </c>
       <c r="BJ2" t="n">
-        <v>8.247704681707546e-05</v>
+        <v>4.457200702745467e-06</v>
       </c>
       <c r="BK2" t="n">
-        <v>9.348299499833956e-05</v>
+        <v>7.353129149123561e-06</v>
       </c>
       <c r="BL2" t="n">
-        <v>2.439971649437211e-05</v>
+        <v>2.123980448232032e-05</v>
       </c>
       <c r="BM2" t="n">
-        <v>5.475080979522318e-05</v>
+        <v>1.662987051531672e-05</v>
       </c>
       <c r="BN2" t="n">
-        <v>5.076031811768189e-05</v>
+        <v>2.494404952813056e-06</v>
       </c>
       <c r="BO2" t="n">
-        <v>3.568541069398634e-05</v>
+        <v>9.444210036235745e-08</v>
       </c>
       <c r="BP2" t="n">
-        <v>9.791826596483588e-05</v>
+        <v>4.105896550754551e-06</v>
       </c>
       <c r="BQ2" t="n">
-        <v>4.751954838866368e-05</v>
+        <v>3.240202659071656e-06</v>
       </c>
       <c r="BR2" t="n">
-        <v>6.023732566973194e-05</v>
+        <v>1.190394868899602e-06</v>
       </c>
       <c r="BS2" t="n">
-        <v>5.802986561320722e-05</v>
+        <v>6.056816800992237e-06</v>
       </c>
       <c r="BT2" t="n">
-        <v>1.242834787262836e-05</v>
+        <v>1.548665068185073e-06</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.0001304140314459801</v>
+        <v>8.502452146785799e-06</v>
       </c>
       <c r="BV2" t="n">
-        <v>9.735618732520379e-06</v>
+        <v>5.276982847135514e-06</v>
       </c>
       <c r="BW2" t="n">
-        <v>1.709789830783848e-05</v>
+        <v>5.926444373471895e-06</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.0001398433523718268</v>
+        <v>2.950352836705861e-06</v>
       </c>
       <c r="BY2" t="n">
-        <v>3.744122295756824e-05</v>
+        <v>1.382123082294129e-05</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.0001108830256271176</v>
+        <v>9.506650258117588e-07</v>
       </c>
       <c r="CA2" t="n">
-        <v>2.776696419459768e-06</v>
+        <v>2.885089543269714e-06</v>
       </c>
       <c r="CB2" t="n">
-        <v>1.580010939505883e-05</v>
+        <v>1.269569565920392e-06</v>
       </c>
       <c r="CC2" t="n">
-        <v>1.039635208144318e-05</v>
+        <v>8.06681498488615e-07</v>
       </c>
       <c r="CD2" t="n">
-        <v>9.669791324995458e-06</v>
+        <v>9.62905596679775e-06</v>
       </c>
       <c r="CE2" t="n">
-        <v>3.019249925273471e-05</v>
+        <v>1.89534716810158e-06</v>
       </c>
       <c r="CF2" t="n">
-        <v>3.454968464211561e-05</v>
+        <v>1.954762865352677e-06</v>
       </c>
       <c r="CG2" t="n">
-        <v>9.234293975168839e-05</v>
+        <v>1.10433447844116e-05</v>
       </c>
       <c r="CH2" t="n">
-        <v>5.065355708211428e-06</v>
+        <v>1.48163371704868e-06</v>
       </c>
       <c r="CI2" t="n">
-        <v>1.663629154791124e-05</v>
+        <v>3.139409727737075e-06</v>
       </c>
       <c r="CJ2" t="n">
-        <v>3.742150875041261e-05</v>
+        <v>1.983426500373753e-06</v>
       </c>
       <c r="CK2" t="n">
-        <v>2.431897337373812e-05</v>
+        <v>2.205619921369362e-06</v>
       </c>
       <c r="CL2" t="n">
-        <v>2.20521633309545e-05</v>
+        <v>1.301448719459586e-06</v>
       </c>
       <c r="CM2" t="n">
-        <v>5.280561890685931e-05</v>
+        <v>3.757381819013972e-07</v>
       </c>
       <c r="CN2" t="n">
-        <v>4.347874346422032e-05</v>
+        <v>2.656850028870394e-06</v>
       </c>
       <c r="CO2" t="n">
-        <v>9.530094393994659e-05</v>
+        <v>1.725326910673175e-06</v>
       </c>
       <c r="CP2" t="n">
-        <v>5.919358591199853e-05</v>
+        <v>9.865470019576605e-06</v>
       </c>
       <c r="CQ2" t="n">
-        <v>3.278712392784655e-05</v>
+        <v>7.72026032791473e-06</v>
       </c>
       <c r="CR2" t="n">
-        <v>4.41003248852212e-05</v>
+        <v>1.979100943572121e-06</v>
       </c>
       <c r="CS2" t="n">
-        <v>3.330752224428579e-05</v>
+        <v>7.321874818444485e-06</v>
       </c>
       <c r="CT2" t="n">
-        <v>2.223638512077741e-05</v>
+        <v>7.515296147175832e-06</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.000158107970491983</v>
+        <v>9.291625246987678e-06</v>
       </c>
       <c r="CV2" t="n">
-        <v>3.641844159574248e-06</v>
+        <v>1.104386319639161e-05</v>
       </c>
       <c r="CW2" t="n">
-        <v>3.125983494101092e-05</v>
+        <v>2.060169435935677e-06</v>
       </c>
       <c r="CX2" t="n">
-        <v>3.792600909946486e-05</v>
+        <v>6.108541583671467e-08</v>
       </c>
       <c r="CY2" t="n">
-        <v>9.696785127744079e-05</v>
+        <v>7.467709565389669e-06</v>
       </c>
       <c r="CZ2" t="n">
-        <v>6.91486093273852e-07</v>
+        <v>3.157911692142079e-07</v>
       </c>
       <c r="DA2" t="n">
-        <v>9.717763532535173e-06</v>
+        <v>3.981673216912895e-06</v>
       </c>
       <c r="DB2" t="n">
-        <v>1.36785238282755e-05</v>
+        <v>1.525169864180498e-06</v>
       </c>
       <c r="DC2" t="n">
-        <v>2.207353645644616e-05</v>
+        <v>3.123814394712099e-06</v>
       </c>
       <c r="DD2" t="n">
-        <v>4.926184919895604e-05</v>
+        <v>1.508634795754915e-06</v>
       </c>
       <c r="DE2" t="n">
-        <v>4.75717315566726e-05</v>
+        <v>6.239180549982848e-08</v>
       </c>
       <c r="DF2" t="n">
-        <v>5.492956552188843e-05</v>
+        <v>1.706754846964031e-05</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.0001093366590794176</v>
+        <v>8.043087291298434e-06</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.0001299053401453421</v>
+        <v>4.530322428308864e-07</v>
       </c>
       <c r="DI2" t="n">
-        <v>6.947076326468959e-05</v>
+        <v>1.16638029794558e-05</v>
       </c>
       <c r="DJ2" t="n">
-        <v>6.956237484700978e-05</v>
+        <v>1.176155728899175e-05</v>
       </c>
       <c r="DK2" t="n">
-        <v>8.070067269727588e-05</v>
+        <v>1.417785006196937e-05</v>
       </c>
       <c r="DL2" t="n">
-        <v>8.900880493456498e-05</v>
+        <v>1.498807250754908e-06</v>
       </c>
       <c r="DM2" t="n">
-        <v>4.023249857709743e-07</v>
+        <v>1.092060392693384e-05</v>
       </c>
       <c r="DN2" t="n">
-        <v>5.062626223661937e-05</v>
+        <v>7.305845883820439e-06</v>
       </c>
       <c r="DO2" t="n">
-        <v>1.092800175683806e-05</v>
+        <v>4.084195552422898e-06</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.0001388066448271275</v>
+        <v>1.051065100909909e-05</v>
       </c>
       <c r="DQ2" t="n">
-        <v>9.099980525206774e-05</v>
+        <v>1.452604919904843e-05</v>
       </c>
       <c r="DR2" t="n">
-        <v>7.882182399043813e-05</v>
+        <v>2.247259772047983e-06</v>
       </c>
       <c r="DS2" t="n">
-        <v>3.566304803825915e-05</v>
+        <v>1.288135763388709e-06</v>
       </c>
       <c r="DT2" t="n">
-        <v>1.742501262924634e-05</v>
+        <v>2.212508661614265e-06</v>
       </c>
       <c r="DU2" t="n">
-        <v>9.098297596210614e-05</v>
+        <v>2.788484039228933e-07</v>
       </c>
       <c r="DV2" t="n">
-        <v>4.699988858192228e-05</v>
+        <v>4.347777576185763e-06</v>
       </c>
       <c r="DW2" t="n">
-        <v>8.883784903446212e-05</v>
+        <v>7.699161869823001e-06</v>
       </c>
       <c r="DX2" t="n">
-        <v>2.686105290194973e-05</v>
+        <v>8.394640644837637e-06</v>
       </c>
       <c r="DY2" t="n">
-        <v>3.080096576013602e-05</v>
+        <v>5.180615971767111e-07</v>
       </c>
       <c r="DZ2" t="n">
-        <v>4.197672751615755e-05</v>
+        <v>7.270165497175185e-06</v>
       </c>
       <c r="EA2" t="n">
-        <v>4.43162425654009e-05</v>
+        <v>2.322407908650348e-06</v>
       </c>
       <c r="EB2" t="n">
-        <v>2.375447911617812e-05</v>
+        <v>9.063993275049143e-06</v>
       </c>
       <c r="EC2" t="n">
-        <v>4.120833909837529e-05</v>
+        <v>6.043435860192403e-06</v>
       </c>
       <c r="ED2" t="n">
-        <v>3.217780613340437e-05</v>
+        <v>9.685376426205039e-06</v>
       </c>
       <c r="EE2" t="n">
-        <v>4.505095148488181e-06</v>
+        <v>7.028094842098653e-06</v>
       </c>
       <c r="EF2" t="n">
-        <v>2.600162770249881e-05</v>
+        <v>3.658144578366773e-06</v>
       </c>
       <c r="EG2" t="n">
-        <v>2.508480065444019e-06</v>
+        <v>1.897220045066206e-06</v>
       </c>
       <c r="EH2" t="n">
-        <v>4.965480911778286e-06</v>
+        <v>4.656840246752836e-08</v>
       </c>
       <c r="EI2" t="n">
-        <v>7.920651114545763e-05</v>
+        <v>2.280377884744667e-05</v>
       </c>
       <c r="EJ2" t="n">
-        <v>2.872316872526426e-05</v>
+        <v>1.755070343278931e-06</v>
       </c>
       <c r="EK2" t="n">
-        <v>6.411849608412012e-05</v>
+        <v>3.2887542147364e-06</v>
       </c>
       <c r="EL2" t="n">
-        <v>4.024138252134435e-05</v>
+        <v>2.48743253905559e-06</v>
       </c>
       <c r="EM2" t="n">
-        <v>8.189750224119052e-05</v>
+        <v>9.669153769209515e-06</v>
       </c>
       <c r="EN2" t="n">
-        <v>4.400442048790865e-05</v>
+        <v>4.65912535219104e-06</v>
       </c>
       <c r="EO2" t="n">
-        <v>7.700258720433339e-05</v>
+        <v>1.514381983724888e-05</v>
       </c>
       <c r="EP2" t="n">
-        <v>1.912162042572163e-05</v>
+        <v>8.357869774044957e-07</v>
       </c>
       <c r="EQ2" t="n">
-        <v>4.468191764317453e-05</v>
+        <v>1.070794496627059e-05</v>
       </c>
       <c r="ER2" t="n">
-        <v>4.069362330483273e-05</v>
+        <v>5.766335561929736e-06</v>
       </c>
       <c r="ES2" t="n">
-        <v>9.126837539952248e-06</v>
+        <v>1.353707034468243e-06</v>
       </c>
       <c r="ET2" t="n">
-        <v>3.245698462706059e-05</v>
+        <v>8.052586053963751e-06</v>
       </c>
       <c r="EU2" t="n">
-        <v>3.863233359879814e-05</v>
+        <v>3.802141463893349e-06</v>
       </c>
       <c r="EV2" t="n">
-        <v>5.826730921398848e-05</v>
+        <v>7.329353593377164e-06</v>
       </c>
       <c r="EW2" t="n">
-        <v>7.587594882352278e-05</v>
+        <v>8.68062397785252e-06</v>
       </c>
       <c r="EX2" t="n">
-        <v>9.332563422503881e-06</v>
+        <v>1.240475467056967e-05</v>
       </c>
       <c r="EY2" t="n">
-        <v>4.403703496791422e-05</v>
+        <v>2.85574674308009e-06</v>
       </c>
       <c r="EZ2" t="n">
-        <v>4.547449134406634e-05</v>
+        <v>7.96867709595972e-07</v>
       </c>
       <c r="FA2" t="n">
-        <v>7.911320426501334e-05</v>
+        <v>1.083914503396954e-05</v>
       </c>
       <c r="FB2" t="n">
-        <v>6.894531907164492e-06</v>
+        <v>9.462958132644417e-07</v>
       </c>
       <c r="FC2" t="n">
-        <v>5.671075768987066e-07</v>
+        <v>1.421232468601374e-06</v>
       </c>
       <c r="FD2" t="n">
-        <v>8.584651368437335e-06</v>
+        <v>6.406442025763681e-07</v>
       </c>
       <c r="FE2" t="n">
-        <v>3.294251291663386e-05</v>
+        <v>7.222702151921112e-07</v>
       </c>
       <c r="FF2" t="n">
-        <v>2.841812056431081e-05</v>
+        <v>3.158609160891501e-06</v>
       </c>
       <c r="FG2" t="n">
-        <v>4.20101969211828e-05</v>
+        <v>8.846473065204918e-08</v>
       </c>
       <c r="FH2" t="n">
-        <v>2.778612542897463e-05</v>
+        <v>1.27721186800045e-05</v>
       </c>
       <c r="FI2" t="n">
-        <v>1.85848621185869e-05</v>
+        <v>7.311842296076065e-07</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.0001169440656667575</v>
+        <v>9.110632163356058e-06</v>
       </c>
       <c r="FK2" t="n">
-        <v>7.8876233601477e-05</v>
+        <v>8.468642590742093e-06</v>
       </c>
       <c r="FL2" t="n">
-        <v>5.817437340738252e-07</v>
+        <v>2.464283170411363e-06</v>
       </c>
       <c r="FM2" t="n">
-        <v>9.972874977393076e-06</v>
+        <v>3.499396143524791e-06</v>
       </c>
       <c r="FN2" t="n">
-        <v>5.611403685179539e-05</v>
+        <v>5.606542799796443e-06</v>
       </c>
       <c r="FO2" t="n">
-        <v>8.870397141436115e-05</v>
+        <v>1.860731799752102e-06</v>
       </c>
       <c r="FP2" t="n">
-        <v>2.623409272928257e-06</v>
+        <v>2.431018765491899e-05</v>
       </c>
       <c r="FQ2" t="n">
-        <v>8.025446732062846e-05</v>
+        <v>1.001948385237483e-05</v>
       </c>
       <c r="FR2" t="n">
-        <v>5.881004108232446e-05</v>
+        <v>5.460622560349293e-06</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.0001147217190009542</v>
+        <v>3.179218310833676e-06</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.000127670296933502</v>
+        <v>2.485029654053506e-06</v>
       </c>
       <c r="FU2" t="n">
-        <v>4.653200812754221e-05</v>
+        <v>9.228360795532353e-06</v>
       </c>
       <c r="FV2" t="n">
-        <v>9.502957254881039e-05</v>
+        <v>2.735392627073452e-05</v>
       </c>
       <c r="FW2" t="n">
-        <v>4.109144811081933e-06</v>
+        <v>2.14338033401873e-05</v>
       </c>
       <c r="FX2" t="n">
-        <v>5.499455073731951e-05</v>
+        <v>8.125972499328782e-07</v>
       </c>
       <c r="FY2" t="n">
-        <v>5.598690768238157e-05</v>
+        <v>2.077771569020115e-05</v>
       </c>
       <c r="FZ2" t="n">
-        <v>2.843808761099353e-05</v>
+        <v>2.793927706079558e-06</v>
       </c>
       <c r="GA2" t="n">
-        <v>1.061972943716682e-05</v>
+        <v>1.704540954960976e-05</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.0001049243583111092</v>
+        <v>8.99426140676951e-06</v>
       </c>
       <c r="GC2" t="n">
-        <v>1.05348699435126e-05</v>
+        <v>5.79759898755583e-06</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.0002088715846184641</v>
+        <v>1.241440440935548e-05</v>
       </c>
       <c r="GE2" t="n">
-        <v>6.384340667864308e-05</v>
+        <v>1.26247878142749e-05</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.0001390382385579869</v>
+        <v>1.459414397686487e-05</v>
       </c>
       <c r="GG2" t="n">
-        <v>3.371035927557386e-05</v>
+        <v>1.132701436290517e-05</v>
       </c>
     </row>
     <row r="3">
